--- a/projects/test_building/input/Scenario_Radiator_Cost_PaybackTime.xlsx
+++ b/projects/test_building/input/Scenario_Radiator_Cost_PaybackTime.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A43750A-7A81-5A41-B626-77D863049D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="4020" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6615" yWindow="4020" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -160,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,53 +214,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{754E3583-778D-9347-90BF-6687116B66DF}" name="Table2" displayName="Table2" ref="A1:AR3" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:AR3" xr:uid="{754E3583-778D-9347-90BF-6687116B66DF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AR3" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:AR3"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{B7DE0845-028C-C34E-A6CC-3EF7394688D7}" name="id_region"/>
-    <tableColumn id="3" xr3:uid="{FC9F0D67-E03E-B843-853F-5F2A91F25BCF}" name="id_radiator"/>
-    <tableColumn id="5" xr3:uid="{BC126FFE-0A2C-B341-9931-A4126C04158D}" name="unit"/>
-    <tableColumn id="6" xr3:uid="{D1D72141-B78F-6B48-9B36-AF37B06364E6}" name="2010"/>
-    <tableColumn id="7" xr3:uid="{72F8EF92-D4B8-E24B-B5AD-12A9B629FDAC}" name="2011"/>
-    <tableColumn id="8" xr3:uid="{B76C8D43-16E1-E948-BCB4-FB65A4D3F732}" name="2012"/>
-    <tableColumn id="9" xr3:uid="{2FD32BDC-BC0E-8C4F-9D50-CDF9170C1600}" name="2013"/>
-    <tableColumn id="10" xr3:uid="{AC6F7133-3235-B74C-9CCE-E1B4F91860B3}" name="2014"/>
-    <tableColumn id="11" xr3:uid="{A45098B9-A410-C243-ADE5-A95E30946357}" name="2015"/>
-    <tableColumn id="12" xr3:uid="{B66A3B4E-96AC-114D-ADCE-0DA982F7CC05}" name="2016"/>
-    <tableColumn id="13" xr3:uid="{24C4B3D5-7C29-7142-8D4A-3BCF888728FA}" name="2017"/>
-    <tableColumn id="14" xr3:uid="{81F4935D-9EE6-BA4B-90F2-CDB7B5E1666F}" name="2018"/>
-    <tableColumn id="15" xr3:uid="{2F554382-ED93-624E-BF78-10B61AD54BC3}" name="2019"/>
-    <tableColumn id="16" xr3:uid="{07A7513A-56A0-6048-A58A-319D9784C75C}" name="2020"/>
-    <tableColumn id="17" xr3:uid="{9C3F73BA-8E86-9142-B3A0-4906B1389239}" name="2021"/>
-    <tableColumn id="18" xr3:uid="{49E0BEE3-4C33-F74F-BB70-BD158A1249AB}" name="2022"/>
-    <tableColumn id="19" xr3:uid="{363457AD-47F3-5543-987A-71FAD0A0F77E}" name="2023"/>
-    <tableColumn id="20" xr3:uid="{DDA0689D-7620-494C-B52C-E848D767FE87}" name="2024"/>
-    <tableColumn id="21" xr3:uid="{FC424D25-EDE8-A647-88D0-167CB12050A9}" name="2025"/>
-    <tableColumn id="22" xr3:uid="{AD93497E-093E-4C43-9DEA-66AC04D23F82}" name="2026"/>
-    <tableColumn id="23" xr3:uid="{34ACFCF3-496C-0647-A330-0543EE0B96DB}" name="2027"/>
-    <tableColumn id="24" xr3:uid="{7951C8D1-6F4A-2043-AA60-731A7EC18FE2}" name="2028"/>
-    <tableColumn id="25" xr3:uid="{5062A984-9EEC-AB4E-A596-90BBA183B01C}" name="2029"/>
-    <tableColumn id="26" xr3:uid="{3FEEF5A0-5B13-8441-A320-47B543E39B54}" name="2030"/>
-    <tableColumn id="27" xr3:uid="{5C918C67-01F5-9F42-8744-357C9F676E47}" name="2031"/>
-    <tableColumn id="28" xr3:uid="{5287EC05-71FB-0244-93B8-FD58E16EF0D3}" name="2032"/>
-    <tableColumn id="29" xr3:uid="{A780E534-AF41-F545-8EB8-9FF649A8D4E7}" name="2033"/>
-    <tableColumn id="30" xr3:uid="{A6D9AFAF-BEE0-BD4F-9EFD-DE43E2B9F763}" name="2034"/>
-    <tableColumn id="31" xr3:uid="{CDFDB61F-3BA9-1941-A871-6278B1CCFD3D}" name="2035"/>
-    <tableColumn id="32" xr3:uid="{2D139893-B21D-0543-9779-C936BAD00461}" name="2036"/>
-    <tableColumn id="33" xr3:uid="{30E8410B-BC73-E14C-80B7-F59167241CAB}" name="2037"/>
-    <tableColumn id="34" xr3:uid="{2C6561A0-9F32-8E4F-9735-FB33E6CAA472}" name="2038"/>
-    <tableColumn id="35" xr3:uid="{5CDB07B0-3C7B-0040-8A96-A89348DA004F}" name="2039"/>
-    <tableColumn id="36" xr3:uid="{362441A9-E547-3747-BF87-BFC46D159B33}" name="2040"/>
-    <tableColumn id="37" xr3:uid="{A91EF098-85FF-8D46-828D-8E47BF531C30}" name="2041"/>
-    <tableColumn id="38" xr3:uid="{2648AB03-5710-AC40-8847-AA18326553A2}" name="2042"/>
-    <tableColumn id="39" xr3:uid="{4224BA7F-CE2F-3D4C-BB40-C93EF676C074}" name="2043"/>
-    <tableColumn id="40" xr3:uid="{5A6A285A-6370-4A4A-89E2-B650A7B15DBC}" name="2044"/>
-    <tableColumn id="41" xr3:uid="{541D451B-4DCC-8242-878C-1BF1A090E627}" name="2045"/>
-    <tableColumn id="42" xr3:uid="{A1D60D6C-0800-9043-88CB-2A1BA319F470}" name="2046"/>
-    <tableColumn id="43" xr3:uid="{22FB5C1B-DCBE-E74C-873B-82453A355D07}" name="2047"/>
-    <tableColumn id="44" xr3:uid="{3AB31019-F6BC-AE4B-8ADB-3EBCCE5DFD21}" name="2048"/>
-    <tableColumn id="45" xr3:uid="{C13E0582-9BF7-3341-94FD-11F1BD4533CC}" name="2049"/>
-    <tableColumn id="46" xr3:uid="{A428F590-87F4-A044-916C-7FB4F2779240}" name="2050"/>
+    <tableColumn id="1" name="id_region"/>
+    <tableColumn id="3" name="id_radiator"/>
+    <tableColumn id="5" name="unit"/>
+    <tableColumn id="6" name="2010"/>
+    <tableColumn id="7" name="2011"/>
+    <tableColumn id="8" name="2012"/>
+    <tableColumn id="9" name="2013"/>
+    <tableColumn id="10" name="2014"/>
+    <tableColumn id="11" name="2015"/>
+    <tableColumn id="12" name="2016"/>
+    <tableColumn id="13" name="2017"/>
+    <tableColumn id="14" name="2018"/>
+    <tableColumn id="15" name="2019"/>
+    <tableColumn id="16" name="2020"/>
+    <tableColumn id="17" name="2021"/>
+    <tableColumn id="18" name="2022"/>
+    <tableColumn id="19" name="2023"/>
+    <tableColumn id="20" name="2024"/>
+    <tableColumn id="21" name="2025"/>
+    <tableColumn id="22" name="2026"/>
+    <tableColumn id="23" name="2027"/>
+    <tableColumn id="24" name="2028"/>
+    <tableColumn id="25" name="2029"/>
+    <tableColumn id="26" name="2030"/>
+    <tableColumn id="27" name="2031"/>
+    <tableColumn id="28" name="2032"/>
+    <tableColumn id="29" name="2033"/>
+    <tableColumn id="30" name="2034"/>
+    <tableColumn id="31" name="2035"/>
+    <tableColumn id="32" name="2036"/>
+    <tableColumn id="33" name="2037"/>
+    <tableColumn id="34" name="2038"/>
+    <tableColumn id="35" name="2039"/>
+    <tableColumn id="36" name="2040"/>
+    <tableColumn id="37" name="2041"/>
+    <tableColumn id="38" name="2042"/>
+    <tableColumn id="39" name="2043"/>
+    <tableColumn id="40" name="2044"/>
+    <tableColumn id="41" name="2045"/>
+    <tableColumn id="42" name="2046"/>
+    <tableColumn id="43" name="2047"/>
+    <tableColumn id="44" name="2048"/>
+    <tableColumn id="45" name="2049"/>
+    <tableColumn id="46" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -529,19 +528,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C03C8B-FA27-EA40-B172-F029AE2AAD08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:AR3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +674,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -686,130 +685,130 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="U2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="V2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="W2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Y2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Z2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AB2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AC2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AH2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AI2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AJ2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AK2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AL2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AM2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AN2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AO2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AP2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AQ2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AR2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -820,127 +819,127 @@
         <v>44</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="U3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="V3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="W3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Y3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Z3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AB3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AC3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AH3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AI3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AJ3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AK3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AL3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AM3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AN3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AO3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AP3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AQ3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AR3">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
